--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.10404379750201</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="H2">
-        <v>4.10404379750201</v>
+        <v>12.983012</v>
       </c>
       <c r="I2">
-        <v>0.6139313439114916</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="J2">
-        <v>0.6139313439114916</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.10404379750201</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="N2">
-        <v>4.10404379750201</v>
+        <v>12.983012</v>
       </c>
       <c r="O2">
-        <v>0.6139313439114916</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="P2">
-        <v>0.6139313439114916</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="Q2">
-        <v>16.84317549181472</v>
+        <v>18.72873339912711</v>
       </c>
       <c r="R2">
-        <v>16.84317549181472</v>
+        <v>168.558600592144</v>
       </c>
       <c r="S2">
-        <v>0.3769116950369702</v>
+        <v>0.2770461196430075</v>
       </c>
       <c r="T2">
-        <v>0.3769116950369702</v>
+        <v>0.3317337706189111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.10404379750201</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="H3">
-        <v>4.10404379750201</v>
+        <v>12.983012</v>
       </c>
       <c r="I3">
-        <v>0.6139313439114916</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="J3">
-        <v>0.6139313439114916</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05712316016549</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="N3">
-        <v>1.05712316016549</v>
+        <v>3.689804</v>
       </c>
       <c r="O3">
-        <v>0.1581369679327952</v>
+        <v>0.1495904520869676</v>
       </c>
       <c r="P3">
-        <v>0.1581369679327952</v>
+        <v>0.1636902007711505</v>
       </c>
       <c r="Q3">
-        <v>4.338479748672904</v>
+        <v>5.322752178849777</v>
       </c>
       <c r="R3">
-        <v>4.338479748672904</v>
+        <v>47.904769609648</v>
       </c>
       <c r="S3">
-        <v>0.09708524124506938</v>
+        <v>0.07873718983262494</v>
       </c>
       <c r="T3">
-        <v>0.09708524124506938</v>
+        <v>0.09427955498806756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,185 +646,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10404379750201</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="H4">
-        <v>4.10404379750201</v>
+        <v>12.983012</v>
       </c>
       <c r="I4">
-        <v>0.6139313439114916</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="J4">
-        <v>0.6139313439114916</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.52369094737811</v>
+        <v>0.04034066666666667</v>
       </c>
       <c r="N4">
-        <v>1.52369094737811</v>
+        <v>0.121022</v>
       </c>
       <c r="O4">
-        <v>0.2279316881557131</v>
+        <v>0.004906422046392978</v>
       </c>
       <c r="P4">
-        <v>0.2279316881557131</v>
+        <v>0.005368880156703764</v>
       </c>
       <c r="Q4">
-        <v>6.253294381897094</v>
+        <v>0.1745811198071111</v>
       </c>
       <c r="R4">
-        <v>6.253294381897094</v>
+        <v>1.571230078264</v>
       </c>
       <c r="S4">
-        <v>0.139934407629452</v>
+        <v>0.002582503620225881</v>
       </c>
       <c r="T4">
-        <v>0.139934407629452</v>
+        <v>0.003092278154548565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05712316016549</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="H5">
-        <v>1.05712316016549</v>
+        <v>12.983012</v>
       </c>
       <c r="I5">
-        <v>0.1581369679327952</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="J5">
-        <v>0.1581369679327952</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.10404379750201</v>
+        <v>0.4994136666666666</v>
       </c>
       <c r="N5">
-        <v>4.10404379750201</v>
+        <v>1.498241</v>
       </c>
       <c r="O5">
-        <v>0.6139313439114916</v>
+        <v>0.06074104438209466</v>
       </c>
       <c r="P5">
-        <v>0.6139313439114916</v>
+        <v>0.06646623237808004</v>
       </c>
       <c r="Q5">
-        <v>4.338479748672904</v>
+        <v>2.161297875765777</v>
       </c>
       <c r="R5">
-        <v>4.338479748672904</v>
+        <v>19.451680881892</v>
       </c>
       <c r="S5">
-        <v>0.09708524124506938</v>
+        <v>0.03197115240593316</v>
       </c>
       <c r="T5">
-        <v>0.09708524124506938</v>
+        <v>0.03828211328972415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.05712316016549</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="H6">
-        <v>1.05712316016549</v>
+        <v>12.983012</v>
       </c>
       <c r="I6">
-        <v>0.1581369679327952</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="J6">
-        <v>0.1581369679327952</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05712316016549</v>
+        <v>2.1246535</v>
       </c>
       <c r="N6">
-        <v>1.05712316016549</v>
+        <v>4.249307</v>
       </c>
       <c r="O6">
-        <v>0.1581369679327952</v>
+        <v>0.2584103743124225</v>
       </c>
       <c r="P6">
-        <v>0.1581369679327952</v>
+        <v>0.1885113453094677</v>
       </c>
       <c r="Q6">
-        <v>1.117509375758272</v>
+        <v>9.194800628780666</v>
       </c>
       <c r="R6">
-        <v>1.117509375758272</v>
+        <v>55.16880377268399</v>
       </c>
       <c r="S6">
-        <v>0.02500730062697789</v>
+        <v>0.1360147416703307</v>
       </c>
       <c r="T6">
-        <v>0.02500730062697789</v>
+        <v>0.1085756243333468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,247 +832,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.05712316016549</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="H7">
-        <v>1.05712316016549</v>
+        <v>3.689804</v>
       </c>
       <c r="I7">
-        <v>0.1581369679327952</v>
+        <v>0.1495904520869676</v>
       </c>
       <c r="J7">
-        <v>0.1581369679327952</v>
+        <v>0.1636902007711505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.52369094737811</v>
+        <v>4.327670666666666</v>
       </c>
       <c r="N7">
-        <v>1.52369094737811</v>
+        <v>12.983012</v>
       </c>
       <c r="O7">
-        <v>0.2279316881557131</v>
+        <v>0.5263517071721222</v>
       </c>
       <c r="P7">
-        <v>0.2279316881557131</v>
+        <v>0.5759633413845981</v>
       </c>
       <c r="Q7">
-        <v>1.610728989407897</v>
+        <v>5.322752178849777</v>
       </c>
       <c r="R7">
-        <v>1.610728989407897</v>
+        <v>47.904769609648</v>
       </c>
       <c r="S7">
-        <v>0.03604442606074788</v>
+        <v>0.07873718983262494</v>
       </c>
       <c r="T7">
-        <v>0.03604442606074788</v>
+        <v>0.09427955498806756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52369094737811</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="H8">
-        <v>1.52369094737811</v>
+        <v>3.689804</v>
       </c>
       <c r="I8">
-        <v>0.2279316881557131</v>
+        <v>0.1495904520869676</v>
       </c>
       <c r="J8">
-        <v>0.2279316881557131</v>
+        <v>0.1636902007711505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.10404379750201</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="N8">
-        <v>4.10404379750201</v>
+        <v>3.689804</v>
       </c>
       <c r="O8">
-        <v>0.6139313439114916</v>
+        <v>0.1495904520869676</v>
       </c>
       <c r="P8">
-        <v>0.6139313439114916</v>
+        <v>0.1636902007711505</v>
       </c>
       <c r="Q8">
-        <v>6.253294381897094</v>
+        <v>1.512739284268444</v>
       </c>
       <c r="R8">
-        <v>6.253294381897094</v>
+        <v>13.614653558416</v>
       </c>
       <c r="S8">
-        <v>0.139934407629452</v>
+        <v>0.02237730335558335</v>
       </c>
       <c r="T8">
-        <v>0.139934407629452</v>
+        <v>0.02679448182849956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52369094737811</v>
+        <v>1.229934666666667</v>
       </c>
       <c r="H9">
-        <v>1.52369094737811</v>
+        <v>3.689804</v>
       </c>
       <c r="I9">
-        <v>0.2279316881557131</v>
+        <v>0.1495904520869676</v>
       </c>
       <c r="J9">
-        <v>0.2279316881557131</v>
+        <v>0.1636902007711505</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.05712316016549</v>
+        <v>0.04034066666666667</v>
       </c>
       <c r="N9">
-        <v>1.05712316016549</v>
+        <v>0.121022</v>
       </c>
       <c r="O9">
-        <v>0.1581369679327952</v>
+        <v>0.004906422046392978</v>
       </c>
       <c r="P9">
-        <v>0.1581369679327952</v>
+        <v>0.005368880156703764</v>
       </c>
       <c r="Q9">
-        <v>1.610728989407897</v>
+        <v>0.04961638440977778</v>
       </c>
       <c r="R9">
-        <v>1.610728989407897</v>
+        <v>0.446547459688</v>
       </c>
       <c r="S9">
-        <v>0.03604442606074788</v>
+        <v>0.0007339538920493902</v>
       </c>
       <c r="T9">
-        <v>0.03604442606074788</v>
+        <v>0.000878833070767085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.229934666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.689804</v>
+      </c>
+      <c r="I10">
+        <v>0.1495904520869676</v>
+      </c>
+      <c r="J10">
+        <v>0.1636902007711505</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.498241</v>
+      </c>
+      <c r="O10">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="P10">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="Q10">
+        <v>0.6142461816404444</v>
+      </c>
+      <c r="R10">
+        <v>5.528215634764</v>
+      </c>
+      <c r="S10">
+        <v>0.009086280289352102</v>
+      </c>
+      <c r="T10">
+        <v>0.01087987092246986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.229934666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.689804</v>
+      </c>
+      <c r="I11">
+        <v>0.1495904520869676</v>
+      </c>
+      <c r="J11">
+        <v>0.1636902007711505</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.1246535</v>
+      </c>
+      <c r="N11">
+        <v>4.249307</v>
+      </c>
+      <c r="O11">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="P11">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="Q11">
+        <v>2.613184994304667</v>
+      </c>
+      <c r="R11">
+        <v>15.679109965828</v>
+      </c>
+      <c r="S11">
+        <v>0.0386557247173578</v>
+      </c>
+      <c r="T11">
+        <v>0.03085745996134644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.121022</v>
+      </c>
+      <c r="I12">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="J12">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.327670666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.983012</v>
+      </c>
+      <c r="O12">
+        <v>0.5263517071721222</v>
+      </c>
+      <c r="P12">
+        <v>0.5759633413845981</v>
+      </c>
+      <c r="Q12">
+        <v>0.1745811198071111</v>
+      </c>
+      <c r="R12">
+        <v>1.571230078264</v>
+      </c>
+      <c r="S12">
+        <v>0.002582503620225881</v>
+      </c>
+      <c r="T12">
+        <v>0.003092278154548565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.121022</v>
+      </c>
+      <c r="I13">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="J13">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.229934666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.689804</v>
+      </c>
+      <c r="O13">
+        <v>0.1495904520869676</v>
+      </c>
+      <c r="P13">
+        <v>0.1636902007711505</v>
+      </c>
+      <c r="Q13">
+        <v>0.04961638440977778</v>
+      </c>
+      <c r="R13">
+        <v>0.446547459688</v>
+      </c>
+      <c r="S13">
+        <v>0.0007339538920493902</v>
+      </c>
+      <c r="T13">
+        <v>0.000878833070767085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.121022</v>
+      </c>
+      <c r="I14">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="J14">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.121022</v>
+      </c>
+      <c r="O14">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="P14">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="Q14">
+        <v>0.001627369387111111</v>
+      </c>
+      <c r="R14">
+        <v>0.014646324484</v>
+      </c>
+      <c r="S14">
+        <v>2.407297729733105E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.882487413704744E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.121022</v>
+      </c>
+      <c r="I15">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="J15">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.498241</v>
+      </c>
+      <c r="O15">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="P15">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="Q15">
+        <v>0.02014668025577778</v>
+      </c>
+      <c r="R15">
+        <v>0.181320122302</v>
+      </c>
+      <c r="S15">
+        <v>0.0002980211992772436</v>
+      </c>
+      <c r="T15">
+        <v>0.0003568492361055351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.121022</v>
+      </c>
+      <c r="I16">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="J16">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.1246535</v>
+      </c>
+      <c r="N16">
+        <v>4.249307</v>
+      </c>
+      <c r="O16">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="P16">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="Q16">
+        <v>0.08570993862566667</v>
+      </c>
+      <c r="R16">
+        <v>0.514259631754</v>
+      </c>
+      <c r="S16">
+        <v>0.001267870357543132</v>
+      </c>
+      <c r="T16">
+        <v>0.001012094821145532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.498241</v>
+      </c>
+      <c r="I17">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="J17">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.327670666666666</v>
+      </c>
+      <c r="N17">
+        <v>12.983012</v>
+      </c>
+      <c r="O17">
+        <v>0.5263517071721222</v>
+      </c>
+      <c r="P17">
+        <v>0.5759633413845981</v>
+      </c>
+      <c r="Q17">
+        <v>2.161297875765777</v>
+      </c>
+      <c r="R17">
+        <v>19.451680881892</v>
+      </c>
+      <c r="S17">
+        <v>0.03197115240593316</v>
+      </c>
+      <c r="T17">
+        <v>0.03828211328972415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.498241</v>
+      </c>
+      <c r="I18">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="J18">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.229934666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.689804</v>
+      </c>
+      <c r="O18">
+        <v>0.1495904520869676</v>
+      </c>
+      <c r="P18">
+        <v>0.1636902007711505</v>
+      </c>
+      <c r="Q18">
+        <v>0.6142461816404444</v>
+      </c>
+      <c r="R18">
+        <v>5.528215634764</v>
+      </c>
+      <c r="S18">
+        <v>0.009086280289352102</v>
+      </c>
+      <c r="T18">
+        <v>0.01087987092246986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.52369094737811</v>
-      </c>
-      <c r="H10">
-        <v>1.52369094737811</v>
-      </c>
-      <c r="I10">
-        <v>0.2279316881557131</v>
-      </c>
-      <c r="J10">
-        <v>0.2279316881557131</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.52369094737811</v>
-      </c>
-      <c r="N10">
-        <v>1.52369094737811</v>
-      </c>
-      <c r="O10">
-        <v>0.2279316881557131</v>
-      </c>
-      <c r="P10">
-        <v>0.2279316881557131</v>
-      </c>
-      <c r="Q10">
-        <v>2.321634103122002</v>
-      </c>
-      <c r="R10">
-        <v>2.321634103122002</v>
-      </c>
-      <c r="S10">
-        <v>0.05195285446551326</v>
-      </c>
-      <c r="T10">
-        <v>0.05195285446551326</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.498241</v>
+      </c>
+      <c r="I19">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="J19">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.121022</v>
+      </c>
+      <c r="O19">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="P19">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="Q19">
+        <v>0.02014668025577778</v>
+      </c>
+      <c r="R19">
+        <v>0.181320122302</v>
+      </c>
+      <c r="S19">
+        <v>0.0002980211992772436</v>
+      </c>
+      <c r="T19">
+        <v>0.0003568492361055351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.498241</v>
+      </c>
+      <c r="I20">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="J20">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.498241</v>
+      </c>
+      <c r="O20">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="P20">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="Q20">
+        <v>0.2494140104534444</v>
+      </c>
+      <c r="R20">
+        <v>2.244726094081</v>
+      </c>
+      <c r="S20">
+        <v>0.003689474472627593</v>
+      </c>
+      <c r="T20">
+        <v>0.004417760046536936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.498241</v>
+      </c>
+      <c r="I21">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="J21">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.1246535</v>
+      </c>
+      <c r="N21">
+        <v>4.249307</v>
+      </c>
+      <c r="O21">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="P21">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="Q21">
+        <v>1.061080994831167</v>
+      </c>
+      <c r="R21">
+        <v>6.366485968987</v>
+      </c>
+      <c r="S21">
+        <v>0.01569611601490455</v>
+      </c>
+      <c r="T21">
+        <v>0.01252963888324357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.1246535</v>
+      </c>
+      <c r="H22">
+        <v>4.249307</v>
+      </c>
+      <c r="I22">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="J22">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.327670666666666</v>
+      </c>
+      <c r="N22">
+        <v>12.983012</v>
+      </c>
+      <c r="O22">
+        <v>0.5263517071721222</v>
+      </c>
+      <c r="P22">
+        <v>0.5759633413845981</v>
+      </c>
+      <c r="Q22">
+        <v>9.194800628780666</v>
+      </c>
+      <c r="R22">
+        <v>55.16880377268399</v>
+      </c>
+      <c r="S22">
+        <v>0.1360147416703307</v>
+      </c>
+      <c r="T22">
+        <v>0.1085756243333468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.1246535</v>
+      </c>
+      <c r="H23">
+        <v>4.249307</v>
+      </c>
+      <c r="I23">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="J23">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.229934666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.689804</v>
+      </c>
+      <c r="O23">
+        <v>0.1495904520869676</v>
+      </c>
+      <c r="P23">
+        <v>0.1636902007711505</v>
+      </c>
+      <c r="Q23">
+        <v>2.613184994304667</v>
+      </c>
+      <c r="R23">
+        <v>15.679109965828</v>
+      </c>
+      <c r="S23">
+        <v>0.0386557247173578</v>
+      </c>
+      <c r="T23">
+        <v>0.03085745996134644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.1246535</v>
+      </c>
+      <c r="H24">
+        <v>4.249307</v>
+      </c>
+      <c r="I24">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="J24">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04034066666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.121022</v>
+      </c>
+      <c r="O24">
+        <v>0.004906422046392978</v>
+      </c>
+      <c r="P24">
+        <v>0.005368880156703764</v>
+      </c>
+      <c r="Q24">
+        <v>0.08570993862566667</v>
+      </c>
+      <c r="R24">
+        <v>0.514259631754</v>
+      </c>
+      <c r="S24">
+        <v>0.001267870357543132</v>
+      </c>
+      <c r="T24">
+        <v>0.001012094821145532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.1246535</v>
+      </c>
+      <c r="H25">
+        <v>4.249307</v>
+      </c>
+      <c r="I25">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="J25">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.4994136666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.498241</v>
+      </c>
+      <c r="O25">
+        <v>0.06074104438209466</v>
+      </c>
+      <c r="P25">
+        <v>0.06646623237808004</v>
+      </c>
+      <c r="Q25">
+        <v>1.061080994831167</v>
+      </c>
+      <c r="R25">
+        <v>6.366485968987</v>
+      </c>
+      <c r="S25">
+        <v>0.01569611601490455</v>
+      </c>
+      <c r="T25">
+        <v>0.01252963888324357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.1246535</v>
+      </c>
+      <c r="H26">
+        <v>4.249307</v>
+      </c>
+      <c r="I26">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="J26">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.1246535</v>
+      </c>
+      <c r="N26">
+        <v>4.249307</v>
+      </c>
+      <c r="O26">
+        <v>0.2584103743124225</v>
+      </c>
+      <c r="P26">
+        <v>0.1885113453094677</v>
+      </c>
+      <c r="Q26">
+        <v>4.51415249506225</v>
+      </c>
+      <c r="R26">
+        <v>18.056609980249</v>
+      </c>
+      <c r="S26">
+        <v>0.06677592155228632</v>
+      </c>
+      <c r="T26">
+        <v>0.03553652731038537</v>
       </c>
     </row>
   </sheetData>
